--- a/election_votar_data/LOHAGARA/CHUNATI/152622/152622_com_1819_male_without_photo_103_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152622/152622_com_1819_male_without_photo_103_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
     <col width="35" customWidth="1" min="5" max="5"/>
-    <col width="46" customWidth="1" min="6" max="6"/>
+    <col width="32" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -18417,7 +18417,7 @@
       </c>
       <c r="F428" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ:০১/০৩/১৯৯৯</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G428" s="3" t="inlineStr">
@@ -76083,7 +76083,7 @@
       </c>
       <c r="F1801" s="3" t="inlineStr">
         <is>
-          <t>দার্জিলিং জন্ম তারিখ:১৮/০৭/১৯৯৯</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G1801" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/CHUNATI/152622/152622_com_1819_male_without_photo_103_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/CHUNATI/152622/152622_com_1819_male_without_photo_103_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="37" customWidth="1" min="4" max="4"/>
     <col width="35" customWidth="1" min="5" max="5"/>
-    <col width="32" customWidth="1" min="6" max="6"/>
+    <col width="46" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -18417,7 +18417,7 @@
       </c>
       <c r="F428" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ:০১/০৩/১৯৯৯</t>
         </is>
       </c>
       <c r="G428" s="3" t="inlineStr">
@@ -76083,7 +76083,7 @@
       </c>
       <c r="F1801" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>দার্জিলিং জন্ম তারিখ:১৮/০৭/১৯৯৯</t>
         </is>
       </c>
       <c r="G1801" s="3" t="inlineStr">
